--- a/docs/fund/新征程初始入金记录.xlsx
+++ b/docs/fund/新征程初始入金记录.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20400" windowHeight="9405"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20400" windowHeight="9405" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="77">
   <si>
     <t>股东入金</t>
   </si>
@@ -307,22 +307,30 @@
   <si>
     <t>曹良</t>
   </si>
+  <si>
+    <t>包春玉</t>
+  </si>
+  <si>
+    <t>6236 6829 2000 9645 183</t>
+  </si>
+  <si>
+    <t xml:space="preserve">建设银行长沙香樟路支行 </t>
+  </si>
+  <si>
+    <t>bdy111333</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="8">
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0.0000_);[Red]\(0.0000\)"/>
-    <numFmt numFmtId="177" formatCode="0.00_ "/>
-    <numFmt numFmtId="178" formatCode="#,##0.00_ "/>
-    <numFmt numFmtId="179" formatCode="#,##0.0000_ "/>
+  <numFmts count="4">
+    <numFmt numFmtId="178" formatCode="0.0000_);[Red]\(0.0000\)"/>
+    <numFmt numFmtId="179" formatCode="0.00_ "/>
+    <numFmt numFmtId="180" formatCode="#,##0.00_ "/>
+    <numFmt numFmtId="181" formatCode="#,##0.0000_ "/>
   </numFmts>
-  <fonts count="35">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -356,7 +364,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Tahoma"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="12"/>
@@ -433,154 +441,16 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="35">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -595,7 +465,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.6"/>
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -605,188 +475,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -809,256 +499,14 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="50">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="16" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1086,7 +534,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="49" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -1095,19 +543,19 @@
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1125,13 +573,13 @@
     <xf numFmtId="3" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="9" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1140,7 +588,7 @@
     <xf numFmtId="4" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1149,22 +597,22 @@
     <xf numFmtId="4" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="10" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="12" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="181" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
@@ -1176,13 +624,13 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
+    <xf numFmtId="179" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1194,16 +642,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
+    <xf numFmtId="179" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
@@ -1212,68 +660,28 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" quotePrefix="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="50">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 3" xfId="49"/>
+    <cellStyle name="常规 3" xfId="1"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
@@ -1529,15 +937,15 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
@@ -1557,7 +965,7 @@
     <col min="12" max="12" width="17" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="14.25" spans="1:6">
+    <row r="1" spans="1:6" ht="14.25">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
@@ -1575,7 +983,7 @@
       </c>
       <c r="F1" s="18"/>
     </row>
-    <row r="2" ht="14.25" spans="1:6">
+    <row r="2" spans="1:6" ht="14.25">
       <c r="A2" s="6" t="s">
         <v>5</v>
       </c>
@@ -1593,7 +1001,7 @@
       </c>
       <c r="F2" s="21"/>
     </row>
-    <row r="3" ht="14.25" spans="1:6">
+    <row r="3" spans="1:6" ht="14.25">
       <c r="A3" s="6" t="s">
         <v>6</v>
       </c>
@@ -1611,7 +1019,7 @@
       </c>
       <c r="F3" s="21"/>
     </row>
-    <row r="4" ht="14.25" spans="1:6">
+    <row r="4" spans="1:6" ht="14.25">
       <c r="A4" s="6"/>
       <c r="B4" s="6"/>
       <c r="C4" s="6"/>
@@ -1619,7 +1027,7 @@
       <c r="E4" s="17"/>
       <c r="F4" s="21"/>
     </row>
-    <row r="5" ht="14.25" spans="1:6">
+    <row r="5" spans="1:6" ht="14.25">
       <c r="A5" s="6"/>
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
@@ -1627,7 +1035,7 @@
       <c r="E5" s="6"/>
       <c r="F5" s="18"/>
     </row>
-    <row r="6" ht="14.25" spans="1:6">
+    <row r="6" spans="1:6" ht="14.25">
       <c r="A6" s="6"/>
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
@@ -1635,7 +1043,7 @@
       <c r="E6" s="6"/>
       <c r="F6" s="18"/>
     </row>
-    <row r="7" ht="14.25" spans="1:6">
+    <row r="7" spans="1:6" ht="14.25">
       <c r="A7" s="15" t="s">
         <v>7</v>
       </c>
@@ -1653,7 +1061,7 @@
       </c>
       <c r="F7" s="18"/>
     </row>
-    <row r="8" ht="14.25" spans="1:6">
+    <row r="8" spans="1:6" ht="14.25">
       <c r="A8" s="6" t="s">
         <v>5</v>
       </c>
@@ -1671,7 +1079,7 @@
       </c>
       <c r="F8" s="23"/>
     </row>
-    <row r="9" ht="14.25" spans="1:6">
+    <row r="9" spans="1:6" ht="14.25">
       <c r="A9" s="6" t="s">
         <v>6</v>
       </c>
@@ -1689,7 +1097,7 @@
       </c>
       <c r="F9" s="23"/>
     </row>
-    <row r="10" ht="14.25" spans="1:6">
+    <row r="10" spans="1:6" ht="14.25">
       <c r="A10" s="6" t="s">
         <v>10</v>
       </c>
@@ -1707,7 +1115,7 @@
       </c>
       <c r="F10" s="23"/>
     </row>
-    <row r="11" ht="14.25" spans="1:6">
+    <row r="11" spans="1:6" ht="14.25">
       <c r="A11" s="6" t="s">
         <v>11</v>
       </c>
@@ -1725,7 +1133,7 @@
       </c>
       <c r="F11" s="23"/>
     </row>
-    <row r="12" ht="14.25" spans="1:6">
+    <row r="12" spans="1:6" ht="14.25">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -1733,7 +1141,7 @@
       <c r="E12" s="6"/>
       <c r="F12" s="18"/>
     </row>
-    <row r="13" ht="14.25" spans="1:6">
+    <row r="13" spans="1:6" ht="14.25">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -1741,7 +1149,7 @@
       <c r="E13" s="6"/>
       <c r="F13" s="18"/>
     </row>
-    <row r="14" ht="14.25" spans="1:6">
+    <row r="14" spans="1:6" ht="14.25">
       <c r="A14" s="15" t="s">
         <v>12</v>
       </c>
@@ -1759,7 +1167,7 @@
       </c>
       <c r="F14" s="18"/>
     </row>
-    <row r="15" ht="14.25" spans="1:6">
+    <row r="15" spans="1:6" ht="14.25">
       <c r="A15" s="6" t="s">
         <v>14</v>
       </c>
@@ -1777,7 +1185,7 @@
       </c>
       <c r="F15" s="27"/>
     </row>
-    <row r="16" ht="14.25" spans="1:6">
+    <row r="16" spans="1:6" ht="14.25">
       <c r="A16" s="28"/>
       <c r="B16" s="29" t="s">
         <v>15</v>
@@ -1790,7 +1198,7 @@
       <c r="E16" s="32"/>
       <c r="F16" s="27"/>
     </row>
-    <row r="17" ht="14.25" spans="1:6">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" s="6"/>
       <c r="B17" s="6"/>
       <c r="C17" s="33"/>
@@ -1798,7 +1206,7 @@
       <c r="E17" s="33"/>
       <c r="F17" s="27"/>
     </row>
-    <row r="18" ht="14.25" spans="1:6">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" s="6"/>
       <c r="B18" s="6"/>
       <c r="C18" s="33"/>
@@ -1806,7 +1214,7 @@
       <c r="E18" s="33"/>
       <c r="F18" s="27"/>
     </row>
-    <row r="19" ht="14.25" spans="1:6">
+    <row r="19" spans="1:9" ht="14.25">
       <c r="A19" s="6"/>
       <c r="B19" s="6"/>
       <c r="C19" s="26"/>
@@ -1814,7 +1222,7 @@
       <c r="E19" s="35"/>
       <c r="F19" s="27"/>
     </row>
-    <row r="20" ht="14.25" spans="1:6">
+    <row r="20" spans="1:9" ht="14.25">
       <c r="A20" s="6" t="s">
         <v>16</v>
       </c>
@@ -1832,7 +1240,7 @@
       </c>
       <c r="F20" s="27"/>
     </row>
-    <row r="21" ht="14.25" spans="1:8">
+    <row r="21" spans="1:9" ht="14.25">
       <c r="A21" s="6" t="s">
         <v>20</v>
       </c>
@@ -1851,7 +1259,7 @@
       <c r="F21" s="36"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" ht="14.25" spans="1:9">
+    <row r="22" spans="1:9" ht="14.25">
       <c r="A22" s="6" t="s">
         <v>21</v>
       </c>
@@ -1872,7 +1280,7 @@
       <c r="H22" s="39"/>
       <c r="I22"/>
     </row>
-    <row r="23" spans="2:9">
+    <row r="23" spans="1:9">
       <c r="B23" s="40"/>
       <c r="C23" s="40"/>
       <c r="D23" s="40"/>
@@ -1882,7 +1290,7 @@
       <c r="H23" s="39"/>
       <c r="I23"/>
     </row>
-    <row r="24" spans="2:9">
+    <row r="24" spans="1:9">
       <c r="B24" s="40"/>
       <c r="C24" s="40"/>
       <c r="D24" s="40"/>
@@ -1892,7 +1300,7 @@
       <c r="H24" s="39"/>
       <c r="I24"/>
     </row>
-    <row r="25" spans="2:9">
+    <row r="25" spans="1:9">
       <c r="B25" s="40"/>
       <c r="C25" s="40"/>
       <c r="D25" s="40"/>
@@ -1902,10 +1310,10 @@
       <c r="H25" s="14"/>
       <c r="I25"/>
     </row>
-    <row r="26" spans="4:4">
+    <row r="26" spans="1:9">
       <c r="D26"/>
     </row>
-    <row r="27" spans="1:8">
+    <row r="27" spans="1:9">
       <c r="A27" s="42"/>
       <c r="B27" s="43"/>
       <c r="C27" s="43"/>
@@ -1915,7 +1323,7 @@
       <c r="G27" s="44"/>
       <c r="H27" s="44"/>
     </row>
-    <row r="28" spans="1:8">
+    <row r="28" spans="1:9">
       <c r="A28" s="44"/>
       <c r="B28" s="45"/>
       <c r="C28" s="45"/>
@@ -1925,7 +1333,7 @@
       <c r="G28" s="44"/>
       <c r="H28" s="44"/>
     </row>
-    <row r="29" spans="1:8">
+    <row r="29" spans="1:9">
       <c r="A29" s="44"/>
       <c r="B29" s="45"/>
       <c r="C29" s="45"/>
@@ -1935,7 +1343,7 @@
       <c r="G29" s="44"/>
       <c r="H29" s="44"/>
     </row>
-    <row r="30" spans="1:8">
+    <row r="30" spans="1:9">
       <c r="A30" s="44"/>
       <c r="B30" s="47"/>
       <c r="C30" s="45"/>
@@ -1945,7 +1353,7 @@
       <c r="G30" s="44"/>
       <c r="H30" s="44"/>
     </row>
-    <row r="31" spans="1:8">
+    <row r="31" spans="1:9">
       <c r="A31" s="44"/>
       <c r="B31" s="46"/>
       <c r="C31" s="45"/>
@@ -1955,7 +1363,7 @@
       <c r="G31" s="48"/>
       <c r="H31" s="44"/>
     </row>
-    <row r="32" spans="1:8">
+    <row r="32" spans="1:9">
       <c r="A32" s="44"/>
       <c r="B32" s="46"/>
       <c r="C32" s="46"/>
@@ -1965,7 +1373,7 @@
       <c r="G32" s="48"/>
       <c r="H32" s="44"/>
     </row>
-    <row r="33" spans="1:8">
+    <row r="33" spans="1:12">
       <c r="A33" s="44"/>
       <c r="B33" s="44"/>
       <c r="C33" s="44"/>
@@ -1975,7 +1383,7 @@
       <c r="G33" s="44"/>
       <c r="H33" s="44"/>
     </row>
-    <row r="34" spans="1:8">
+    <row r="34" spans="1:12">
       <c r="A34" s="44"/>
       <c r="B34" s="44"/>
       <c r="C34" s="44"/>
@@ -1985,25 +1393,24 @@
       <c r="G34" s="44"/>
       <c r="H34" s="44"/>
     </row>
-    <row r="35" spans="8:12">
+    <row r="35" spans="1:12">
       <c r="H35" s="2"/>
       <c r="I35"/>
       <c r="K35" s="2"/>
       <c r="L35"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2047,7 +1454,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" spans="1:9">
       <c r="A2" s="2" t="s">
         <v>31</v>
       </c>
@@ -2062,7 +1469,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" ht="18.75" spans="1:9">
+    <row r="3" spans="1:9" ht="18.75">
       <c r="A3" s="1" t="s">
         <v>35</v>
       </c>
@@ -2089,7 +1496,7 @@
       </c>
       <c r="I3" s="1"/>
     </row>
-    <row r="4" ht="18.75" spans="1:9">
+    <row r="4" spans="1:9" ht="18.75">
       <c r="A4" s="1" t="s">
         <v>39</v>
       </c>
@@ -2112,7 +1519,7 @@
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" ht="18.75" spans="1:9">
+    <row r="5" spans="1:9" ht="18.75">
       <c r="A5" s="1" t="s">
         <v>43</v>
       </c>
@@ -2162,7 +1569,7 @@
         <v>18913535969</v>
       </c>
     </row>
-    <row r="7" s="1" customFormat="1" ht="18.75" spans="1:5">
+    <row r="7" spans="1:9" s="1" customFormat="1" ht="18.75">
       <c r="A7" s="1" t="s">
         <v>52</v>
       </c>
@@ -2179,7 +1586,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
+    <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
         <v>18</v>
       </c>
@@ -2200,35 +1607,35 @@
       </c>
       <c r="G8" s="3"/>
     </row>
-    <row r="9" ht="18.75" spans="1:7">
+    <row r="9" spans="1:9" ht="18.75">
       <c r="A9" s="3"/>
       <c r="D9" s="4"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:9">
       <c r="A10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
-    <row r="11" spans="1:7">
+    <row r="11" spans="1:9">
       <c r="A11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
-    <row r="12" spans="1:7">
+    <row r="12" spans="1:9">
       <c r="A12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>60</v>
       </c>
@@ -2251,7 +1658,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2274,7 +1681,7 @@
         <v>639952</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:8">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>17</v>
       </c>
@@ -2297,7 +1704,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" ht="15" spans="1:8">
+    <row r="17" spans="1:9" ht="14.25">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -2321,7 +1728,7 @@
         <v>47472</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:7">
+    <row r="18" spans="1:9" ht="14.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
@@ -2336,7 +1743,7 @@
       </c>
       <c r="G18" s="9"/>
     </row>
-    <row r="19" spans="1:3">
+    <row r="19" spans="1:9">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -2345,6 +1752,30 @@
       </c>
       <c r="C19">
         <v>910137</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" ht="14.25">
+      <c r="A20" s="53" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="54">
+        <v>21000030</v>
+      </c>
+      <c r="C20" s="55" t="s">
+        <v>74</v>
+      </c>
+      <c r="D20" s="55" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="53">
+        <v>257959</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="53">
+        <v>645183</v>
+      </c>
+      <c r="H20" s="52" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:9">
@@ -2469,23 +1900,20 @@
       <c r="I31" s="10"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <headerFooter/>
+  <phoneticPr fontId="16" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51180555555555596" footer="0.51180555555555596"/>
 </worksheet>
 </file>